--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
